--- a/FoodCalc/food_calculator_omersivan.xlsx
+++ b/FoodCalc/food_calculator_omersivan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omer David\Desktop\קוח אנאליסט\DA-Portfolio-main\FoodCalc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omer David\Documents\GitHub\osportfolio\FoodCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C9E2E-9077-4123-86DB-C7D04A74D477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E369D539-38AE-473C-B1BF-2A5AFA87E9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8BD8BA8-C897-42E4-833B-0AD2CC73EB54}"/>
+    <workbookView xWindow="17220" yWindow="2115" windowWidth="11580" windowHeight="8865" xr2:uid="{F8BD8BA8-C897-42E4-833B-0AD2CC73EB54}"/>
   </bookViews>
   <sheets>
     <sheet name="calculator" sheetId="1" r:id="rId1"/>
